--- a/ProjectDocuments/OSMS Project Schedule.xlsx
+++ b/ProjectDocuments/OSMS Project Schedule.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejacobson/Documents/SEARCH/OSMS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejacobson/Documents/message-switch/main/ProjectDocuments/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30440" yWindow="-1640" windowWidth="33140" windowHeight="19620" tabRatio="500"/>
+    <workbookView xWindow="30380" yWindow="-2040" windowWidth="31980" windowHeight="20420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart - Manual Duration" sheetId="1" r:id="rId1"/>
@@ -246,7 +246,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +261,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +329,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -413,6 +419,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -747,13 +759,13 @@
                   <c:v>417.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>126.5</c:v>
+                  <c:v>285.5285714285714</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.0</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>224.0</c:v>
@@ -762,22 +774,22 @@
                   <c:v>279.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.15</c:v>
+                  <c:v>54.45</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.8</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.933333333333333</c:v>
+                  <c:v>38.13333333333334</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.0</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.15</c:v>
+                  <c:v>14.3</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.0</c:v>
@@ -801,7 +813,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.297222222222222</c:v>
+                  <c:v>0.374603174603175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1132,13 +1144,13 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>379.5</c:v>
+                  <c:v>220.4714285714286</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72.0</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.9</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>224.0</c:v>
@@ -1147,22 +1159,22 @@
                   <c:v>150.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>102.85</c:v>
+                  <c:v>66.55</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>108.0</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>133.2</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>201.0666666666667</c:v>
+                  <c:v>169.8666666666667</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>114.0</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>135.85</c:v>
+                  <c:v>128.7</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>45.0</c:v>
@@ -1186,7 +1198,7 @@
                   <c:v>107.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.702777777777778</c:v>
+                  <c:v>0.625396825396825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1202,11 +1214,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="140474624"/>
-        <c:axId val="140429264"/>
+        <c:axId val="1978289504"/>
+        <c:axId val="1978173184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140474624"/>
+        <c:axId val="1978289504"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1249,7 +1261,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140429264"/>
+        <c:crossAx val="1978173184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1257,7 +1269,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140429264"/>
+        <c:axId val="1978173184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43560.0"/>
@@ -1312,7 +1324,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140474624"/>
+        <c:crossAx val="1978289504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="90.0"/>
@@ -2210,8 +2222,8 @@
   </sheetPr>
   <dimension ref="B1:W58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2462,15 +2474,15 @@
       </c>
       <c r="G8" s="6">
         <f t="shared" si="1"/>
-        <v>126.5</v>
+        <v>285.52857142857141</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="2"/>
-        <v>379.5</v>
+        <v>220.47142857142859</v>
       </c>
       <c r="I8" s="7">
         <f>AVERAGE(I9:I15)</f>
-        <v>0.25</v>
+        <v>0.56428571428571428</v>
       </c>
       <c r="K8" s="10"/>
     </row>
@@ -2493,14 +2505,14 @@
       </c>
       <c r="G9" s="6">
         <f t="shared" ref="G9:G12" si="11">IF(((E9)=""),"",(I9)*(E9-D9))</f>
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ref="H9:H12" si="12">IF(G9="","",(E9-D9)-G9)</f>
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="I9" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K9" s="10"/>
     </row>
@@ -2523,14 +2535,14 @@
       </c>
       <c r="G10" s="6">
         <f t="shared" ref="G10" si="14">IF(((E10)=""),"",(I10)*(E10-D10))</f>
-        <v>1.1000000000000001</v>
+        <v>22</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ref="H10" si="15">IF(G10="","",(E10-D10)-G10)</f>
-        <v>20.9</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="K10" s="10"/>
     </row>
@@ -2613,14 +2625,14 @@
       </c>
       <c r="G13" s="6">
         <f>IF(((E13)=""),"",(I13)*(E13-D13))</f>
-        <v>18.149999999999999</v>
+        <v>54.45</v>
       </c>
       <c r="H13" s="6">
         <f>IF(G13="","",(E13-D13)-G13)</f>
-        <v>102.85</v>
+        <v>66.55</v>
       </c>
       <c r="I13" s="7">
-        <v>0.15</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.2">
@@ -2642,18 +2654,18 @@
       </c>
       <c r="G14" s="6">
         <f>IF(((E14)=""),"",(I14)*(E14-D14))</f>
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="H14" s="6">
         <f>IF(G14="","",(E14-D14)-G14)</f>
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="I14" s="7">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="39" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="33" t="s">
@@ -2671,14 +2683,14 @@
       </c>
       <c r="G15" s="6">
         <f>IF(((E15)=""),"",(I15)*(E15-D15))</f>
-        <v>14.8</v>
+        <v>74</v>
       </c>
       <c r="H15" s="6">
         <f>IF(G15="","",(E15-D15)-G15)</f>
-        <v>133.19999999999999</v>
+        <v>74</v>
       </c>
       <c r="I15" s="7">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.2">
@@ -2700,19 +2712,19 @@
       </c>
       <c r="G16" s="6">
         <f t="shared" si="1"/>
-        <v>6.9333333333333336</v>
+        <v>38.13333333333334</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" si="2"/>
-        <v>201.06666666666666</v>
+        <v>169.86666666666667</v>
       </c>
       <c r="I16" s="7">
         <f>AVERAGE(I17:I19)</f>
-        <v>3.3333333333333333E-2</v>
+        <v>0.18333333333333335</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="40" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="32"/>
@@ -2728,18 +2740,18 @@
       </c>
       <c r="G17" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="I17" s="7">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="40" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="32"/>
@@ -2755,14 +2767,14 @@
       </c>
       <c r="G18" s="6">
         <f t="shared" si="1"/>
-        <v>7.15</v>
+        <v>14.3</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" si="2"/>
-        <v>135.85</v>
+        <v>128.69999999999999</v>
       </c>
       <c r="I18" s="7">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
@@ -2980,15 +2992,15 @@
       </c>
       <c r="G26" s="6">
         <f>IF(((E26)=""),"",(I26)*(E26-D26))</f>
-        <v>0.29722222222222222</v>
+        <v>0.3746031746031746</v>
       </c>
       <c r="H26" s="6">
         <f>IF(G26="","",(E26-D26)-G26)</f>
-        <v>0.70277777777777772</v>
+        <v>0.6253968253968254</v>
       </c>
       <c r="I26" s="7">
         <f>AVERAGE(I3,I4,I8,I16,I20,I25)</f>
-        <v>0.29722222222222222</v>
+        <v>0.3746031746031746</v>
       </c>
       <c r="K26" s="11"/>
     </row>
